--- a/ExpertData/2_ExportScoreData.xlsx
+++ b/ExpertData/2_ExportScoreData.xlsx
@@ -282,7 +282,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -294,7 +296,9 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -306,7 +310,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -318,7 +324,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -330,7 +338,9 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -342,7 +352,9 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -354,7 +366,9 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
@@ -366,7 +380,9 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
@@ -378,7 +394,9 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
@@ -390,7 +408,9 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
@@ -402,7 +422,9 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
@@ -414,7 +436,9 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13"/>
+      <c r="C13" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
@@ -426,7 +450,9 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14"/>
+      <c r="C14" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
@@ -438,7 +464,9 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15"/>
+      <c r="C15" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
@@ -450,7 +478,9 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16"/>
+      <c r="C16" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
@@ -462,7 +492,9 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17"/>
+      <c r="C17" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
@@ -474,7 +506,9 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18"/>
+      <c r="C18" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
@@ -486,7 +520,9 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19"/>
+      <c r="C19" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
@@ -498,7 +534,9 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
@@ -510,7 +548,9 @@
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
@@ -522,7 +562,9 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22"/>
+      <c r="C22" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -534,7 +576,9 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23"/>
+      <c r="C23" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
@@ -546,7 +590,9 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24"/>
+      <c r="C24" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
@@ -558,7 +604,9 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C25"/>
+      <c r="C25" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D25" t="s">
         <v>5</v>
       </c>
@@ -570,7 +618,9 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26"/>
+      <c r="C26" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
@@ -582,7 +632,9 @@
       <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D27" t="s">
         <v>5</v>
       </c>
@@ -594,7 +646,9 @@
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C28"/>
+      <c r="C28" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
@@ -606,7 +660,9 @@
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29"/>
+      <c r="C29" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
@@ -618,7 +674,9 @@
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30"/>
+      <c r="C30" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
@@ -630,7 +688,9 @@
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="C31"/>
+      <c r="C31" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
@@ -642,7 +702,9 @@
       <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C32"/>
+      <c r="C32" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D32" t="s">
         <v>5</v>
       </c>
@@ -654,7 +716,9 @@
       <c r="B33" t="s">
         <v>36</v>
       </c>
-      <c r="C33"/>
+      <c r="C33" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
@@ -666,7 +730,9 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34"/>
+      <c r="C34" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
@@ -678,7 +744,9 @@
       <c r="B35" t="s">
         <v>38</v>
       </c>
-      <c r="C35"/>
+      <c r="C35" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
@@ -690,7 +758,9 @@
       <c r="B36" t="s">
         <v>39</v>
       </c>
-      <c r="C36"/>
+      <c r="C36" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
@@ -702,7 +772,9 @@
       <c r="B37" t="s">
         <v>40</v>
       </c>
-      <c r="C37"/>
+      <c r="C37" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
@@ -714,7 +786,9 @@
       <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="C38"/>
+      <c r="C38" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
@@ -726,7 +800,9 @@
       <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="C39"/>
+      <c r="C39" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
@@ -738,7 +814,9 @@
       <c r="B40" t="s">
         <v>43</v>
       </c>
-      <c r="C40"/>
+      <c r="C40" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
@@ -750,7 +828,9 @@
       <c r="B41" t="s">
         <v>44</v>
       </c>
-      <c r="C41"/>
+      <c r="C41" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
@@ -762,7 +842,9 @@
       <c r="B42" t="s">
         <v>45</v>
       </c>
-      <c r="C42"/>
+      <c r="C42" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
@@ -774,7 +856,9 @@
       <c r="B43" t="s">
         <v>46</v>
       </c>
-      <c r="C43"/>
+      <c r="C43" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
@@ -786,7 +870,9 @@
       <c r="B44" t="s">
         <v>47</v>
       </c>
-      <c r="C44"/>
+      <c r="C44" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
@@ -798,7 +884,9 @@
       <c r="B45" t="s">
         <v>48</v>
       </c>
-      <c r="C45"/>
+      <c r="C45" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
@@ -810,7 +898,9 @@
       <c r="B46" t="s">
         <v>49</v>
       </c>
-      <c r="C46"/>
+      <c r="C46" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
@@ -822,7 +912,9 @@
       <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="C47"/>
+      <c r="C47" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
@@ -834,7 +926,9 @@
       <c r="B48" t="s">
         <v>51</v>
       </c>
-      <c r="C48"/>
+      <c r="C48" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
@@ -846,7 +940,9 @@
       <c r="B49" t="s">
         <v>52</v>
       </c>
-      <c r="C49"/>
+      <c r="C49" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
@@ -858,7 +954,9 @@
       <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="C50"/>
+      <c r="C50" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D50" t="s">
         <v>5</v>
       </c>
@@ -870,7 +968,9 @@
       <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="C51"/>
+      <c r="C51" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D51" t="s">
         <v>5</v>
       </c>
